--- a/data/pca/factorExposure/factorExposure_2018-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02210806005499253</v>
+        <v>-0.02190632843577145</v>
       </c>
       <c r="C2">
-        <v>0.01971277299633716</v>
+        <v>0.01848012213369382</v>
       </c>
       <c r="D2">
-        <v>0.03292526951280072</v>
+        <v>0.02180713347461907</v>
       </c>
       <c r="E2">
-        <v>-0.01131278737987213</v>
+        <v>0.01630477668164722</v>
       </c>
       <c r="F2">
-        <v>-0.1106006481604599</v>
+        <v>-0.003495888234455146</v>
       </c>
       <c r="G2">
-        <v>-0.05110267611225282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0524756908115861</v>
+      </c>
+      <c r="H2">
+        <v>0.05127741300353869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1014801009485708</v>
+        <v>-0.08218295209767756</v>
       </c>
       <c r="C3">
-        <v>-0.0462544415685518</v>
+        <v>-0.01284709552042932</v>
       </c>
       <c r="D3">
-        <v>0.09419751700197135</v>
+        <v>0.02529786028143052</v>
       </c>
       <c r="E3">
-        <v>-0.02947836219438646</v>
+        <v>0.01043229743657591</v>
       </c>
       <c r="F3">
-        <v>-0.4007505222138628</v>
+        <v>0.04301780634370642</v>
       </c>
       <c r="G3">
-        <v>-0.1499422720256487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1789498949851808</v>
+      </c>
+      <c r="H3">
+        <v>0.1681133134036987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04503200020550953</v>
+        <v>-0.04453842465067336</v>
       </c>
       <c r="C4">
-        <v>0.02218002206003612</v>
+        <v>0.004621540170743591</v>
       </c>
       <c r="D4">
-        <v>-0.01436453591008619</v>
+        <v>0.0481678653791353</v>
       </c>
       <c r="E4">
-        <v>0.0424756452253903</v>
+        <v>-0.02277334189309163</v>
       </c>
       <c r="F4">
-        <v>-0.08770428953164133</v>
+        <v>-0.04818235110291712</v>
       </c>
       <c r="G4">
-        <v>-0.05819599290563008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0417517659243247</v>
+      </c>
+      <c r="H4">
+        <v>0.05746388486501744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02021107438294717</v>
+        <v>-0.02606554381201493</v>
       </c>
       <c r="C6">
-        <v>0.01200270243014613</v>
+        <v>0.003765196683201329</v>
       </c>
       <c r="D6">
-        <v>0.01289993705006707</v>
+        <v>0.05117773174945881</v>
       </c>
       <c r="E6">
-        <v>0.01889803061135099</v>
+        <v>-0.007757477331699097</v>
       </c>
       <c r="F6">
-        <v>-0.02534797983044134</v>
+        <v>-0.02865424017988899</v>
       </c>
       <c r="G6">
-        <v>0.007641259698956906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01439620298581957</v>
+      </c>
+      <c r="H6">
+        <v>0.06349325676993893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02383366777913325</v>
+        <v>-0.02230554809824771</v>
       </c>
       <c r="C7">
-        <v>0.001676270062285438</v>
+        <v>0.002565940520648442</v>
       </c>
       <c r="D7">
-        <v>0.01336429781306137</v>
+        <v>0.02731174335335603</v>
       </c>
       <c r="E7">
-        <v>0.02856047928967806</v>
+        <v>-0.04195935348678825</v>
       </c>
       <c r="F7">
-        <v>-0.05158510196484402</v>
+        <v>-0.002480890869094984</v>
       </c>
       <c r="G7">
-        <v>-0.06546119234248604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02506128574483344</v>
+      </c>
+      <c r="H7">
+        <v>0.03825011381942565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01881867394690646</v>
+        <v>-0.00562743237584782</v>
       </c>
       <c r="C8">
-        <v>0.01302873737848474</v>
+        <v>-0.001483138845827008</v>
       </c>
       <c r="D8">
-        <v>0.008656804762972533</v>
+        <v>0.01107823929208422</v>
       </c>
       <c r="E8">
-        <v>0.03796205264292843</v>
+        <v>-0.007331091359952595</v>
       </c>
       <c r="F8">
-        <v>-0.1045681737042567</v>
+        <v>-0.01506158471040354</v>
       </c>
       <c r="G8">
-        <v>-0.05128842811381722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04578923755070573</v>
+      </c>
+      <c r="H8">
+        <v>0.0442248362040829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03452136428306009</v>
+        <v>-0.03594062471253718</v>
       </c>
       <c r="C9">
-        <v>0.01844181212312667</v>
+        <v>0.0006270618081507194</v>
       </c>
       <c r="D9">
-        <v>-0.00360891762191274</v>
+        <v>0.03562510985028086</v>
       </c>
       <c r="E9">
-        <v>0.03457719908336038</v>
+        <v>-0.01189488051212292</v>
       </c>
       <c r="F9">
-        <v>-0.09164388700396782</v>
+        <v>-0.02386645705782574</v>
       </c>
       <c r="G9">
-        <v>-0.05913466768138028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04848001810271674</v>
+      </c>
+      <c r="H9">
+        <v>0.0542321027395028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02931264593552792</v>
+        <v>-0.1007830618681541</v>
       </c>
       <c r="C10">
-        <v>-0.04343079635870296</v>
+        <v>-0.02692435805603773</v>
       </c>
       <c r="D10">
-        <v>-0.08195966096164162</v>
+        <v>-0.1587200551482384</v>
       </c>
       <c r="E10">
-        <v>-0.1101058689417815</v>
+        <v>0.007250956712596881</v>
       </c>
       <c r="F10">
-        <v>-0.04090759271985217</v>
+        <v>0.04134751161360041</v>
       </c>
       <c r="G10">
-        <v>0.02544195364200087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02221140049812871</v>
+      </c>
+      <c r="H10">
+        <v>0.006243934133426719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03445403226554214</v>
+        <v>-0.02108908029394342</v>
       </c>
       <c r="C11">
-        <v>0.01447127704195966</v>
+        <v>-0.008408403367876217</v>
       </c>
       <c r="D11">
-        <v>0.01931806982526377</v>
+        <v>0.03986177868433691</v>
       </c>
       <c r="E11">
-        <v>0.02724540094689868</v>
+        <v>0.001105786590347844</v>
       </c>
       <c r="F11">
-        <v>-0.04873491341228198</v>
+        <v>-0.008709092878077578</v>
       </c>
       <c r="G11">
-        <v>-0.02743215081470384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02632633739063107</v>
+      </c>
+      <c r="H11">
+        <v>0.04622223630458668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04299333214489896</v>
+        <v>-0.03007842691113072</v>
       </c>
       <c r="C12">
-        <v>0.01607718308569022</v>
+        <v>-0.006821668871859017</v>
       </c>
       <c r="D12">
-        <v>0.01144354502672323</v>
+        <v>0.04007887801422591</v>
       </c>
       <c r="E12">
-        <v>0.03685522955799278</v>
+        <v>-0.008861304125186847</v>
       </c>
       <c r="F12">
-        <v>-0.03613940387767569</v>
+        <v>-0.01517276821627226</v>
       </c>
       <c r="G12">
-        <v>-0.01670641958906812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.010927278085494</v>
+      </c>
+      <c r="H12">
+        <v>0.02474859987955063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0152991859206787</v>
+        <v>-0.02557324899204811</v>
       </c>
       <c r="C13">
-        <v>0.01924184673985336</v>
+        <v>0.01457243559713591</v>
       </c>
       <c r="D13">
-        <v>0.01672110118248653</v>
+        <v>3.935285906882831e-05</v>
       </c>
       <c r="E13">
-        <v>-0.005777478493994172</v>
+        <v>0.01257054397779452</v>
       </c>
       <c r="F13">
-        <v>-0.07726209906518824</v>
+        <v>-0.009066942051980475</v>
       </c>
       <c r="G13">
-        <v>-0.0404197715562894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05627874609994805</v>
+      </c>
+      <c r="H13">
+        <v>0.06184958122544337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01463077215896721</v>
+        <v>-0.01731875470363556</v>
       </c>
       <c r="C14">
-        <v>0.008643211859710856</v>
+        <v>0.0006466301454330078</v>
       </c>
       <c r="D14">
-        <v>-0.004460660759427174</v>
+        <v>0.005544084014486892</v>
       </c>
       <c r="E14">
-        <v>0.03544451639922357</v>
+        <v>-0.01371131982069252</v>
       </c>
       <c r="F14">
-        <v>-0.0552644331881643</v>
+        <v>-0.01291983835644469</v>
       </c>
       <c r="G14">
-        <v>-0.06683352962968693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04325461820084497</v>
+      </c>
+      <c r="H14">
+        <v>0.007613520692431817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02686446874414754</v>
+        <v>-0.0223241199346983</v>
       </c>
       <c r="C16">
-        <v>0.01838939817118574</v>
+        <v>-0.008878993491686209</v>
       </c>
       <c r="D16">
-        <v>0.0183492508012693</v>
+        <v>0.03477379216513091</v>
       </c>
       <c r="E16">
-        <v>0.02073533686420964</v>
+        <v>-0.002797091818636285</v>
       </c>
       <c r="F16">
-        <v>-0.05309592182718122</v>
+        <v>-0.01460951701644135</v>
       </c>
       <c r="G16">
-        <v>-0.02907759061159616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02325660907613755</v>
+      </c>
+      <c r="H16">
+        <v>0.03839029650775083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.047989260655033</v>
+        <v>-0.03442253648802265</v>
       </c>
       <c r="C19">
-        <v>0.01665460581024806</v>
+        <v>0.0003494980967861224</v>
       </c>
       <c r="D19">
-        <v>0.01899022898742737</v>
+        <v>0.02094180681318667</v>
       </c>
       <c r="E19">
-        <v>0.03183627668651823</v>
+        <v>-0.005300304300561293</v>
       </c>
       <c r="F19">
-        <v>-0.1065202490069735</v>
+        <v>-0.01622588749792252</v>
       </c>
       <c r="G19">
-        <v>-0.03129950864033044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05782428614181203</v>
+      </c>
+      <c r="H19">
+        <v>0.07295084876585983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001231207962156201</v>
+        <v>-0.00973091334715258</v>
       </c>
       <c r="C20">
-        <v>0.01111143562778154</v>
+        <v>0.006607471179811079</v>
       </c>
       <c r="D20">
-        <v>-0.001364662415648682</v>
+        <v>0.009043319707259034</v>
       </c>
       <c r="E20">
-        <v>0.02739873077306899</v>
+        <v>-0.004065111113570373</v>
       </c>
       <c r="F20">
-        <v>-0.07605255364352728</v>
+        <v>-0.01107004582140007</v>
       </c>
       <c r="G20">
-        <v>-0.07051115765169856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04963320233411157</v>
+      </c>
+      <c r="H20">
+        <v>0.01947493800005471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002516565936930141</v>
+        <v>-0.0162915266890453</v>
       </c>
       <c r="C21">
-        <v>-0.0169371181381396</v>
+        <v>0.00813113926849449</v>
       </c>
       <c r="D21">
-        <v>0.01079010059043823</v>
+        <v>0.008358168821240002</v>
       </c>
       <c r="E21">
-        <v>0.02161004513831648</v>
+        <v>-0.01726156962086577</v>
       </c>
       <c r="F21">
-        <v>-0.05247243539216908</v>
+        <v>-0.001683279287863491</v>
       </c>
       <c r="G21">
-        <v>-0.02623007277159931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04858658683087394</v>
+      </c>
+      <c r="H21">
+        <v>0.04312223905465893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03102616380426882</v>
+        <v>-0.02002223605449632</v>
       </c>
       <c r="C24">
-        <v>0.01930736058387851</v>
+        <v>-0.003209416303245284</v>
       </c>
       <c r="D24">
-        <v>0.01057285196847438</v>
+        <v>0.03532418933802075</v>
       </c>
       <c r="E24">
-        <v>0.005892496387246502</v>
+        <v>4.911634049850127e-06</v>
       </c>
       <c r="F24">
-        <v>-0.04659311036061652</v>
+        <v>-0.009165649426114201</v>
       </c>
       <c r="G24">
-        <v>-0.02613353120358807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01997916607872691</v>
+      </c>
+      <c r="H24">
+        <v>0.0430686088069781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03033794000744387</v>
+        <v>-0.03002511617728608</v>
       </c>
       <c r="C25">
-        <v>0.01157009821858866</v>
+        <v>-0.001257298667014265</v>
       </c>
       <c r="D25">
-        <v>0.01713748434930749</v>
+        <v>0.03449613860754214</v>
       </c>
       <c r="E25">
-        <v>0.03127252230154497</v>
+        <v>-0.004649111629450202</v>
       </c>
       <c r="F25">
-        <v>-0.05057237804962508</v>
+        <v>-0.01591291857016497</v>
       </c>
       <c r="G25">
-        <v>-0.007687670728937088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0238170234125063</v>
+      </c>
+      <c r="H25">
+        <v>0.04599915111539116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02026360292555623</v>
+        <v>-0.02041896794111438</v>
       </c>
       <c r="C26">
-        <v>0.003860763635261954</v>
+        <v>0.01720398238921532</v>
       </c>
       <c r="D26">
-        <v>0.0316190687980594</v>
+        <v>0.002826543717973214</v>
       </c>
       <c r="E26">
-        <v>0.01206466819019794</v>
+        <v>0.00119338706661589</v>
       </c>
       <c r="F26">
-        <v>-0.06373398845095669</v>
+        <v>0.0003253393996295465</v>
       </c>
       <c r="G26">
-        <v>-0.03541786133918081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03221306467252744</v>
+      </c>
+      <c r="H26">
+        <v>0.02260325319023491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06093042822180215</v>
+        <v>-0.02443049326351601</v>
       </c>
       <c r="C27">
-        <v>0.02843363668786503</v>
+        <v>-0.009341332515895426</v>
       </c>
       <c r="D27">
-        <v>-0.02460403351405306</v>
+        <v>0.01447450548302593</v>
       </c>
       <c r="E27">
-        <v>0.03146015925371099</v>
+        <v>-0.007007135643065486</v>
       </c>
       <c r="F27">
-        <v>-0.05912569401012701</v>
+        <v>-0.01537719319555286</v>
       </c>
       <c r="G27">
-        <v>-0.04586926799548473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01873901294479749</v>
+      </c>
+      <c r="H27">
+        <v>0.003981384710556602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04450829811082849</v>
+        <v>-0.1499654565143418</v>
       </c>
       <c r="C28">
-        <v>-0.04723650053192312</v>
+        <v>-0.02683781528052532</v>
       </c>
       <c r="D28">
-        <v>-0.1122855964143149</v>
+        <v>-0.2265093210183863</v>
       </c>
       <c r="E28">
-        <v>-0.1528682066679563</v>
+        <v>0.005309500603478082</v>
       </c>
       <c r="F28">
-        <v>-0.03537768630536541</v>
+        <v>0.04328965033128231</v>
       </c>
       <c r="G28">
-        <v>0.005832165213507255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007351270374244379</v>
+      </c>
+      <c r="H28">
+        <v>-0.01086089035431225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02177989322751479</v>
+        <v>-0.02221213464918101</v>
       </c>
       <c r="C29">
-        <v>0.01025346510599746</v>
+        <v>-0.00151930269441758</v>
       </c>
       <c r="D29">
-        <v>-0.007002346636045542</v>
+        <v>0.007086488337239256</v>
       </c>
       <c r="E29">
-        <v>0.05010672070404049</v>
+        <v>-0.0137341895487678</v>
       </c>
       <c r="F29">
-        <v>-0.04807575746474852</v>
+        <v>-0.01589619075855462</v>
       </c>
       <c r="G29">
-        <v>-0.05726404668354103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04104695174284159</v>
+      </c>
+      <c r="H29">
+        <v>0.002868421952214735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09215239433298952</v>
+        <v>-0.0520209584792687</v>
       </c>
       <c r="C30">
-        <v>0.06087548671095664</v>
+        <v>0.004358723736987214</v>
       </c>
       <c r="D30">
-        <v>0.01423621925154785</v>
+        <v>0.06995669000255633</v>
       </c>
       <c r="E30">
-        <v>0.06286826163037575</v>
+        <v>0.02843134816575701</v>
       </c>
       <c r="F30">
-        <v>-0.1001693691150707</v>
+        <v>-0.04864048510160269</v>
       </c>
       <c r="G30">
-        <v>-0.05441645801036375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05642830290343194</v>
+      </c>
+      <c r="H30">
+        <v>0.06785153698072457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06115300999789393</v>
+        <v>-0.0545665235439401</v>
       </c>
       <c r="C31">
-        <v>0.02654458520455874</v>
+        <v>-0.0144922524537768</v>
       </c>
       <c r="D31">
-        <v>0.02962802543867134</v>
+        <v>0.02480149802875908</v>
       </c>
       <c r="E31">
-        <v>0.001809141226207596</v>
+        <v>0.005021403322827914</v>
       </c>
       <c r="F31">
-        <v>-0.04056816240798782</v>
+        <v>-0.01061348469269127</v>
       </c>
       <c r="G31">
-        <v>-0.06776667800181352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01716276229159718</v>
+      </c>
+      <c r="H31">
+        <v>0.01124980559638828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0198693945603986</v>
+        <v>-0.0120377920809195</v>
       </c>
       <c r="C32">
-        <v>0.0156164099152327</v>
+        <v>-0.01373363769479432</v>
       </c>
       <c r="D32">
-        <v>0.01599805880525097</v>
+        <v>0.005089698089556111</v>
       </c>
       <c r="E32">
-        <v>0.07901561507135134</v>
+        <v>-0.03112142519499428</v>
       </c>
       <c r="F32">
-        <v>-0.07987514577735398</v>
+        <v>-0.03539006206807179</v>
       </c>
       <c r="G32">
-        <v>-0.05656353770487413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0345819157575132</v>
+      </c>
+      <c r="H32">
+        <v>0.06435672219240492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04918079275886659</v>
+        <v>-0.03899604495576946</v>
       </c>
       <c r="C33">
-        <v>0.01149713401561181</v>
+        <v>-0.001304394020892506</v>
       </c>
       <c r="D33">
-        <v>0.049151471212831</v>
+        <v>0.03340520557451253</v>
       </c>
       <c r="E33">
-        <v>0.03076753615115486</v>
+        <v>0.02398942992875187</v>
       </c>
       <c r="F33">
-        <v>-0.08910892779791238</v>
+        <v>-0.001120396019483214</v>
       </c>
       <c r="G33">
-        <v>-0.06469232492826606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0470229596054654</v>
+      </c>
+      <c r="H33">
+        <v>0.04337842118676396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03242562147863019</v>
+        <v>-0.02691868371720562</v>
       </c>
       <c r="C34">
-        <v>0.02092997817308248</v>
+        <v>-0.01737767649811939</v>
       </c>
       <c r="D34">
-        <v>0.01357699740249199</v>
+        <v>0.03599521077464893</v>
       </c>
       <c r="E34">
-        <v>0.02681038583150093</v>
+        <v>-0.009037775811205882</v>
       </c>
       <c r="F34">
-        <v>-0.0597006657126123</v>
+        <v>-0.01693163122187214</v>
       </c>
       <c r="G34">
-        <v>-0.01722377418695733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02102334914705157</v>
+      </c>
+      <c r="H34">
+        <v>0.03983794272704864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01551466681811938</v>
+        <v>-0.02160770769277419</v>
       </c>
       <c r="C36">
-        <v>0.004087994799632724</v>
+        <v>0.003698922773362593</v>
       </c>
       <c r="D36">
-        <v>-0.001014521486937092</v>
+        <v>0.001434291155822348</v>
       </c>
       <c r="E36">
-        <v>0.02721820479921533</v>
+        <v>-0.007073923508036362</v>
       </c>
       <c r="F36">
-        <v>-0.0358946260438236</v>
+        <v>-0.00476857513228725</v>
       </c>
       <c r="G36">
-        <v>-0.03564662931820958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01970231565087826</v>
+      </c>
+      <c r="H36">
+        <v>0.01271895286659976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002826556934067872</v>
+        <v>-0.0227238403242336</v>
       </c>
       <c r="C38">
-        <v>-0.0105224529701736</v>
+        <v>-0.01630935429537439</v>
       </c>
       <c r="D38">
-        <v>0.01376600325823529</v>
+        <v>0.008523592574242905</v>
       </c>
       <c r="E38">
-        <v>-0.02025561187867186</v>
+        <v>0.001417678418446165</v>
       </c>
       <c r="F38">
-        <v>-0.04147418654195517</v>
+        <v>-0.009144394928597326</v>
       </c>
       <c r="G38">
-        <v>-0.009941369854668272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01920544689517067</v>
+      </c>
+      <c r="H38">
+        <v>0.04002777419098389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03989642524519069</v>
+        <v>-0.01834560216281747</v>
       </c>
       <c r="C39">
-        <v>0.03706439498810912</v>
+        <v>-0.001335050169658901</v>
       </c>
       <c r="D39">
-        <v>0.02909269612228298</v>
+        <v>0.07661826574659553</v>
       </c>
       <c r="E39">
-        <v>0.029910242745278</v>
+        <v>0.002995581341459493</v>
       </c>
       <c r="F39">
-        <v>-0.07208065032354123</v>
+        <v>-0.01832247022398217</v>
       </c>
       <c r="G39">
-        <v>-0.03181792683396731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04302523779204229</v>
+      </c>
+      <c r="H39">
+        <v>0.07050495595773869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03690772431206067</v>
+        <v>-0.03087901253240569</v>
       </c>
       <c r="C40">
-        <v>0.06362171794588514</v>
+        <v>-0.000729385549264793</v>
       </c>
       <c r="D40">
-        <v>0.03837063684798421</v>
+        <v>0.02122262425639137</v>
       </c>
       <c r="E40">
-        <v>-0.01201881559056325</v>
+        <v>0.02451385600541932</v>
       </c>
       <c r="F40">
-        <v>-0.07702984793056182</v>
+        <v>-0.02698306731154682</v>
       </c>
       <c r="G40">
-        <v>-0.04874180269149433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0269136453298808</v>
+      </c>
+      <c r="H40">
+        <v>0.06668925268174183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0004605065295289104</v>
+        <v>-0.01173608148344967</v>
       </c>
       <c r="C41">
-        <v>-0.002475495770200815</v>
+        <v>0.0004516157399523971</v>
       </c>
       <c r="D41">
-        <v>0.008070822606513999</v>
+        <v>-0.01269247778886604</v>
       </c>
       <c r="E41">
-        <v>0.00966506175709949</v>
+        <v>0.00186337869256255</v>
       </c>
       <c r="F41">
-        <v>-0.005505504598560958</v>
+        <v>0.001421055266026489</v>
       </c>
       <c r="G41">
-        <v>-0.04995270742790593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00345475066906837</v>
+      </c>
+      <c r="H41">
+        <v>-0.00361527196441843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3669634354945848</v>
+        <v>-0.2010136754651496</v>
       </c>
       <c r="C42">
-        <v>-0.6499684988048789</v>
+        <v>0.07244127263445266</v>
       </c>
       <c r="D42">
-        <v>0.5443297357653385</v>
+        <v>0.3292020501974448</v>
       </c>
       <c r="E42">
-        <v>-0.1348065819821991</v>
+        <v>0.213981817437134</v>
       </c>
       <c r="F42">
-        <v>0.2881526921111841</v>
+        <v>0.8598175278822578</v>
       </c>
       <c r="G42">
-        <v>-0.08582413871599541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.198916608671242</v>
+      </c>
+      <c r="H42">
+        <v>-0.04796213371182714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00572276559077419</v>
+        <v>-0.01203141433552238</v>
       </c>
       <c r="C43">
-        <v>-0.006823378227860515</v>
+        <v>0.001580983752496558</v>
       </c>
       <c r="D43">
-        <v>0.01660633180482581</v>
+        <v>-0.01311003582993669</v>
       </c>
       <c r="E43">
-        <v>0.01003598927815673</v>
+        <v>0.005904490714184881</v>
       </c>
       <c r="F43">
-        <v>-0.01921415715550786</v>
+        <v>0.007954869703248806</v>
       </c>
       <c r="G43">
-        <v>-0.04639293385115457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005447194759991877</v>
+      </c>
+      <c r="H43">
+        <v>0.004654386136461218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01480655264386726</v>
+        <v>-0.01387206419491962</v>
       </c>
       <c r="C44">
-        <v>-0.008286891984160889</v>
+        <v>-0.001302814889552595</v>
       </c>
       <c r="D44">
-        <v>0.02266708057422389</v>
+        <v>0.02476310077253964</v>
       </c>
       <c r="E44">
-        <v>0.01240154416762204</v>
+        <v>-0.004853632777719566</v>
       </c>
       <c r="F44">
-        <v>-0.111672081690204</v>
+        <v>0.00620189915410752</v>
       </c>
       <c r="G44">
-        <v>-0.08526921229153582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03834198222676252</v>
+      </c>
+      <c r="H44">
+        <v>0.06120744458746034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01871164845104364</v>
+        <v>-0.01849094823168288</v>
       </c>
       <c r="C46">
-        <v>0.01082871998231613</v>
+        <v>0.003839981654921324</v>
       </c>
       <c r="D46">
-        <v>0.02438275139196384</v>
+        <v>0.01299489928244548</v>
       </c>
       <c r="E46">
-        <v>0.04422382122850054</v>
+        <v>-0.001458292834637518</v>
       </c>
       <c r="F46">
-        <v>-0.06144360801807425</v>
+        <v>-0.01351001522744361</v>
       </c>
       <c r="G46">
-        <v>-0.06482954339426326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0470287150848516</v>
+      </c>
+      <c r="H46">
+        <v>0.01555034593724281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09394828692680401</v>
+        <v>-0.07521831296063947</v>
       </c>
       <c r="C47">
-        <v>0.03283719903544533</v>
+        <v>-0.03008858957954065</v>
       </c>
       <c r="D47">
-        <v>0.01145524457965746</v>
+        <v>0.04421115853576079</v>
       </c>
       <c r="E47">
-        <v>0.02353732881250068</v>
+        <v>-0.0003690006317491675</v>
       </c>
       <c r="F47">
-        <v>-0.02179333808498451</v>
+        <v>-0.02163883279587863</v>
       </c>
       <c r="G47">
-        <v>-0.09015563971810063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008224804644479026</v>
+      </c>
+      <c r="H47">
+        <v>-0.02002411834124434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01709373464768157</v>
+        <v>-0.02276474113079723</v>
       </c>
       <c r="C48">
-        <v>0.005752576549816745</v>
+        <v>-0.006802297171595772</v>
       </c>
       <c r="D48">
-        <v>0.01475155425483357</v>
+        <v>0.007725518912607743</v>
       </c>
       <c r="E48">
-        <v>0.02217882910538415</v>
+        <v>-0.001664209507282628</v>
       </c>
       <c r="F48">
-        <v>-0.05035973154539276</v>
+        <v>-0.008435154852165033</v>
       </c>
       <c r="G48">
-        <v>-0.02454255311172903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02550133481024124</v>
+      </c>
+      <c r="H48">
+        <v>0.02005769577939174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08585964666763496</v>
+        <v>-0.07248212055992791</v>
       </c>
       <c r="C50">
-        <v>0.0270951738434985</v>
+        <v>-0.02665820044739607</v>
       </c>
       <c r="D50">
-        <v>0.03311115380950016</v>
+        <v>0.04380241300072804</v>
       </c>
       <c r="E50">
-        <v>0.02694185708743753</v>
+        <v>-0.01500976285074041</v>
       </c>
       <c r="F50">
-        <v>-0.04610995079259921</v>
+        <v>-0.01270405181694884</v>
       </c>
       <c r="G50">
-        <v>-0.05740661369733448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01426044876223997</v>
+      </c>
+      <c r="H50">
+        <v>-0.003694772153456562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01790785434361537</v>
+        <v>-0.01862931752920271</v>
       </c>
       <c r="C51">
-        <v>-0.01296911300122663</v>
+        <v>0.001788791617489361</v>
       </c>
       <c r="D51">
-        <v>0.01215193475729052</v>
+        <v>-0.007221102723609893</v>
       </c>
       <c r="E51">
-        <v>-0.01167979975431018</v>
+        <v>-0.001566675509017894</v>
       </c>
       <c r="F51">
-        <v>-0.1091385198557128</v>
+        <v>0.01288273843333534</v>
       </c>
       <c r="G51">
-        <v>-0.05221445369048802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04815627729321025</v>
+      </c>
+      <c r="H51">
+        <v>0.0536585773524168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1048339628234432</v>
+        <v>-0.09380367843885988</v>
       </c>
       <c r="C53">
-        <v>0.05231374413917256</v>
+        <v>-0.03777864109586447</v>
       </c>
       <c r="D53">
-        <v>0.01544301166585338</v>
+        <v>0.08110614597265707</v>
       </c>
       <c r="E53">
-        <v>0.04536796898955545</v>
+        <v>-0.006897033389844237</v>
       </c>
       <c r="F53">
-        <v>0.03913576612568941</v>
+        <v>-0.04896050434955596</v>
       </c>
       <c r="G53">
-        <v>-0.02450974047236941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04232335431956759</v>
+      </c>
+      <c r="H53">
+        <v>-0.04310382022597074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02143732303808539</v>
+        <v>-0.02600276237000031</v>
       </c>
       <c r="C54">
-        <v>0.01343477797685489</v>
+        <v>-0.01105333088752767</v>
       </c>
       <c r="D54">
-        <v>-0.008449422897402477</v>
+        <v>-0.01359916483997707</v>
       </c>
       <c r="E54">
-        <v>0.03472575076383994</v>
+        <v>-0.007172488592687289</v>
       </c>
       <c r="F54">
-        <v>-0.04897220384837483</v>
+        <v>-0.005485777123327799</v>
       </c>
       <c r="G54">
-        <v>-0.0689377996124929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03973093061300729</v>
+      </c>
+      <c r="H54">
+        <v>-0.001994235212358209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1057603738456882</v>
+        <v>-0.07763947190108829</v>
       </c>
       <c r="C55">
-        <v>0.03087706358105847</v>
+        <v>-0.03249805787883749</v>
       </c>
       <c r="D55">
-        <v>-0.007545525537073282</v>
+        <v>0.07671084425295747</v>
       </c>
       <c r="E55">
-        <v>0.06867555151931724</v>
+        <v>-0.0142389239327767</v>
       </c>
       <c r="F55">
-        <v>0.02944165161964126</v>
+        <v>-0.03835894998236348</v>
       </c>
       <c r="G55">
-        <v>-0.07206685146888776</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01848249960343994</v>
+      </c>
+      <c r="H55">
+        <v>-0.05157728318109665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1439793042029183</v>
+        <v>-0.1260403960723124</v>
       </c>
       <c r="C56">
-        <v>0.09153878070740612</v>
+        <v>-0.05663777838379064</v>
       </c>
       <c r="D56">
-        <v>-0.02238263938114405</v>
+        <v>0.1024941894890655</v>
       </c>
       <c r="E56">
-        <v>0.06111071906462014</v>
+        <v>-0.01040789331229291</v>
       </c>
       <c r="F56">
-        <v>0.09254239854950486</v>
+        <v>-0.07836533864320862</v>
       </c>
       <c r="G56">
-        <v>0.03156729365089225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07660289248039419</v>
+      </c>
+      <c r="H56">
+        <v>-0.05426703433305039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04798589539113019</v>
+        <v>-0.03908993220177156</v>
       </c>
       <c r="C57">
-        <v>0.0006832165136740609</v>
+        <v>0.01024916073672044</v>
       </c>
       <c r="D57">
-        <v>0.01611727820071281</v>
+        <v>0.03011237910784009</v>
       </c>
       <c r="E57">
-        <v>-0.0186463390689873</v>
+        <v>0.004550577835710399</v>
       </c>
       <c r="F57">
-        <v>-0.07941473876616596</v>
+        <v>-0.01453203196229046</v>
       </c>
       <c r="G57">
-        <v>-0.06297080286922643</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05654233809386576</v>
+      </c>
+      <c r="H57">
+        <v>0.04601725912384493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2086726763692288</v>
+        <v>-0.1483096091220374</v>
       </c>
       <c r="C58">
-        <v>0.06353697116950507</v>
+        <v>-0.04409260786065622</v>
       </c>
       <c r="D58">
-        <v>0.1263978390649859</v>
+        <v>0.1523655989759052</v>
       </c>
       <c r="E58">
-        <v>0.09474894970609052</v>
+        <v>0.1694364882678538</v>
       </c>
       <c r="F58">
-        <v>-0.3438912205643775</v>
+        <v>0.04505492519042</v>
       </c>
       <c r="G58">
-        <v>-0.1161758291608766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8299527030686116</v>
+      </c>
+      <c r="H58">
+        <v>-0.3742902690363749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04762776851093484</v>
+        <v>-0.1560838304813529</v>
       </c>
       <c r="C59">
-        <v>-0.004267833832662893</v>
+        <v>-0.0345668633801707</v>
       </c>
       <c r="D59">
-        <v>-0.09898590740885173</v>
+        <v>-0.2250541224683508</v>
       </c>
       <c r="E59">
-        <v>-0.1467880736008409</v>
+        <v>0.02332123791639846</v>
       </c>
       <c r="F59">
-        <v>-0.0572438607311183</v>
+        <v>0.02174808262060298</v>
       </c>
       <c r="G59">
-        <v>0.02446887356462872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01015726723134124</v>
+      </c>
+      <c r="H59">
+        <v>0.02030704176020101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1625987978377497</v>
+        <v>-0.1765939457242382</v>
       </c>
       <c r="C60">
-        <v>0.03891378052490356</v>
+        <v>-0.03658918694116454</v>
       </c>
       <c r="D60">
-        <v>0.06624789573836333</v>
+        <v>0.01740935507589691</v>
       </c>
       <c r="E60">
-        <v>-0.07673007892599636</v>
+        <v>0.04924348079679658</v>
       </c>
       <c r="F60">
-        <v>-0.163434804387546</v>
+        <v>-0.03527780524635104</v>
       </c>
       <c r="G60">
-        <v>0.3009136357960369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03739265506101976</v>
+      </c>
+      <c r="H60">
+        <v>0.3835162576214344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02115117572347507</v>
+        <v>-0.02147350603495297</v>
       </c>
       <c r="C61">
-        <v>0.006678914970317139</v>
+        <v>-0.006612596511125569</v>
       </c>
       <c r="D61">
-        <v>0.01709727152613229</v>
+        <v>0.04358928535333801</v>
       </c>
       <c r="E61">
-        <v>0.015744774619933</v>
+        <v>-0.004089125451348801</v>
       </c>
       <c r="F61">
-        <v>-0.04152533250233779</v>
+        <v>-0.01655043936532633</v>
       </c>
       <c r="G61">
-        <v>-0.02188108677436721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02584918881777207</v>
+      </c>
+      <c r="H61">
+        <v>0.05112118255632093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01487905986523256</v>
+        <v>-0.01343232707642343</v>
       </c>
       <c r="C63">
-        <v>0.01213907531889057</v>
+        <v>0.001882606154650486</v>
       </c>
       <c r="D63">
-        <v>0.01589338982064253</v>
+        <v>0.01746602727828407</v>
       </c>
       <c r="E63">
-        <v>0.04354742480740757</v>
+        <v>-0.005504365182258793</v>
       </c>
       <c r="F63">
-        <v>-0.01631374832519296</v>
+        <v>-0.01614716859022306</v>
       </c>
       <c r="G63">
-        <v>-0.04343128987665761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01830746797176582</v>
+      </c>
+      <c r="H63">
+        <v>0.008726537574106791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0347967873391123</v>
+        <v>-0.03955882521039659</v>
       </c>
       <c r="C64">
-        <v>0.003971555021350309</v>
+        <v>-0.009457110880518841</v>
       </c>
       <c r="D64">
-        <v>-0.01207588857104251</v>
+        <v>0.03705046247181843</v>
       </c>
       <c r="E64">
-        <v>0.05420719099168205</v>
+        <v>-0.01149090807990394</v>
       </c>
       <c r="F64">
-        <v>-0.03161130471318849</v>
+        <v>-0.003281981725456308</v>
       </c>
       <c r="G64">
-        <v>-0.06538221837260978</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.006084304514957179</v>
+      </c>
+      <c r="H64">
+        <v>0.03936904932791888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02146700963274855</v>
+        <v>-0.02865180745929753</v>
       </c>
       <c r="C65">
-        <v>0.0138491168032522</v>
+        <v>0.004678973341323444</v>
       </c>
       <c r="D65">
-        <v>0.01427122417044852</v>
+        <v>0.05832934442997267</v>
       </c>
       <c r="E65">
-        <v>0.0201305152484498</v>
+        <v>-0.01033400929399559</v>
       </c>
       <c r="F65">
-        <v>-0.01968111790815321</v>
+        <v>-0.0314736645033088</v>
       </c>
       <c r="G65">
-        <v>0.01209322659979495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001951011064158068</v>
+      </c>
+      <c r="H65">
+        <v>0.0645816039378645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04110305749780691</v>
+        <v>-0.02527619135214699</v>
       </c>
       <c r="C66">
-        <v>0.03851277225246878</v>
+        <v>-0.006426972049450629</v>
       </c>
       <c r="D66">
-        <v>0.03128932673119173</v>
+        <v>0.09042522966335519</v>
       </c>
       <c r="E66">
-        <v>0.02900671156704447</v>
+        <v>0.003834047942507608</v>
       </c>
       <c r="F66">
-        <v>-0.06588256956035569</v>
+        <v>-0.03594521497542442</v>
       </c>
       <c r="G66">
-        <v>-0.02038167076669782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03622011057352842</v>
+      </c>
+      <c r="H66">
+        <v>0.07500468487342983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01461964755503112</v>
+        <v>-0.04316887129168653</v>
       </c>
       <c r="C67">
-        <v>-0.004426810231849235</v>
+        <v>-0.01959413140515091</v>
       </c>
       <c r="D67">
-        <v>0.01465929534046399</v>
+        <v>0.004327189141316168</v>
       </c>
       <c r="E67">
-        <v>-0.03696473986528318</v>
+        <v>0.005634650808833841</v>
       </c>
       <c r="F67">
-        <v>-0.02749123636617708</v>
+        <v>-0.01571688109926083</v>
       </c>
       <c r="G67">
-        <v>-0.0007852603564986816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.003906810280475281</v>
+      </c>
+      <c r="H67">
+        <v>0.03839227772579848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06246781336993492</v>
+        <v>-0.1560779640023385</v>
       </c>
       <c r="C68">
-        <v>-0.02121901349628089</v>
+        <v>-0.01410485943367624</v>
       </c>
       <c r="D68">
-        <v>-0.1306366941872888</v>
+        <v>-0.227519380160873</v>
       </c>
       <c r="E68">
-        <v>-0.1485533968113674</v>
+        <v>0.01850644056481199</v>
       </c>
       <c r="F68">
-        <v>-0.04703427586190136</v>
+        <v>0.04612426128925313</v>
       </c>
       <c r="G68">
-        <v>0.06122859126284511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02067233714895445</v>
+      </c>
+      <c r="H68">
+        <v>-0.04291890620808037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07012566356189702</v>
+        <v>-0.05931160371663734</v>
       </c>
       <c r="C69">
-        <v>0.03796046276909187</v>
+        <v>-0.02894249254057821</v>
       </c>
       <c r="D69">
-        <v>0.007934416871174589</v>
+        <v>0.0405333754016389</v>
       </c>
       <c r="E69">
-        <v>0.00423807466238344</v>
+        <v>0.001441117093844286</v>
       </c>
       <c r="F69">
-        <v>-0.01634747165159765</v>
+        <v>-0.03093070447452334</v>
       </c>
       <c r="G69">
-        <v>-0.08695480176075301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01409355064821444</v>
+      </c>
+      <c r="H69">
+        <v>0.005772071063579367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0705239980068913</v>
+        <v>-0.1468602840749746</v>
       </c>
       <c r="C71">
-        <v>-0.03815827864219264</v>
+        <v>-0.02218780971420217</v>
       </c>
       <c r="D71">
-        <v>-0.1117505240956769</v>
+        <v>-0.1992851648653746</v>
       </c>
       <c r="E71">
-        <v>-0.2029063056674269</v>
+        <v>0.02438755017307707</v>
       </c>
       <c r="F71">
-        <v>-0.04794547856272628</v>
+        <v>0.05363911298690103</v>
       </c>
       <c r="G71">
-        <v>0.01133727520969578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02038125100520257</v>
+      </c>
+      <c r="H71">
+        <v>-0.02930186585927625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1141052884073944</v>
+        <v>-0.08207069766796789</v>
       </c>
       <c r="C72">
-        <v>0.08618292632190298</v>
+        <v>-0.0397071062527034</v>
       </c>
       <c r="D72">
-        <v>-0.0019023293232147</v>
+        <v>0.07716364221935576</v>
       </c>
       <c r="E72">
-        <v>0.00782449051085018</v>
+        <v>0.01009058416406947</v>
       </c>
       <c r="F72">
-        <v>-0.1286314176374426</v>
+        <v>-0.07605689028054267</v>
       </c>
       <c r="G72">
-        <v>0.07240158403614595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05694465215518855</v>
+      </c>
+      <c r="H72">
+        <v>0.1625623924508661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2418981816816131</v>
+        <v>-0.2386134999660849</v>
       </c>
       <c r="C73">
-        <v>0.02935851760086967</v>
+        <v>-0.04673125466291615</v>
       </c>
       <c r="D73">
-        <v>0.07868411328892644</v>
+        <v>0.06927657161209445</v>
       </c>
       <c r="E73">
-        <v>-0.1932652083665208</v>
+        <v>0.08322848071618694</v>
       </c>
       <c r="F73">
-        <v>-0.2743678300918213</v>
+        <v>-0.03303651558856655</v>
       </c>
       <c r="G73">
-        <v>0.4215183026607762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05407736507288591</v>
+      </c>
+      <c r="H73">
+        <v>0.5053387554405421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.142242447831865</v>
+        <v>-0.1183879667041376</v>
       </c>
       <c r="C74">
-        <v>0.04483854198193614</v>
+        <v>-0.05312319919899935</v>
       </c>
       <c r="D74">
-        <v>-0.01766773105143657</v>
+        <v>0.1058826076929949</v>
       </c>
       <c r="E74">
-        <v>0.04264961820907443</v>
+        <v>-0.008405668256167365</v>
       </c>
       <c r="F74">
-        <v>0.06715801004732476</v>
+        <v>-0.06012183115951107</v>
       </c>
       <c r="G74">
-        <v>0.02619683241861685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05686745862083156</v>
+      </c>
+      <c r="H74">
+        <v>-0.03373515878684111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2352914853061731</v>
+        <v>-0.2281010315629473</v>
       </c>
       <c r="C75">
-        <v>0.157510514367</v>
+        <v>-0.1035083985062605</v>
       </c>
       <c r="D75">
-        <v>-0.03506523538479846</v>
+        <v>0.164515837495786</v>
       </c>
       <c r="E75">
-        <v>0.07584316835387969</v>
+        <v>0.003642370920538404</v>
       </c>
       <c r="F75">
-        <v>0.1162399824458413</v>
+        <v>-0.1437195634464816</v>
       </c>
       <c r="G75">
-        <v>0.007297954875288703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1272944755406545</v>
+      </c>
+      <c r="H75">
+        <v>-0.1211207820307711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2810858043005839</v>
+        <v>-0.2013038195728616</v>
       </c>
       <c r="C76">
-        <v>0.1472153587391707</v>
+        <v>-0.09637307685260428</v>
       </c>
       <c r="D76">
-        <v>-0.1001224447619975</v>
+        <v>0.1582334841886792</v>
       </c>
       <c r="E76">
-        <v>0.1055599822853157</v>
+        <v>-0.04624399871247852</v>
       </c>
       <c r="F76">
-        <v>0.1527617372989619</v>
+        <v>-0.1386624444209437</v>
       </c>
       <c r="G76">
-        <v>-0.003251973955691584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.122207031978361</v>
+      </c>
+      <c r="H76">
+        <v>-0.1300515063819153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1349767916679333</v>
+        <v>-0.06941237613672593</v>
       </c>
       <c r="C77">
-        <v>-0.03208921143343717</v>
+        <v>-0.008452832027428782</v>
       </c>
       <c r="D77">
-        <v>0.08886080835521785</v>
+        <v>0.06130067029278903</v>
       </c>
       <c r="E77">
-        <v>0.05605248454265135</v>
+        <v>0.01313452804884173</v>
       </c>
       <c r="F77">
-        <v>-0.1876903875014467</v>
+        <v>0.03763309591922607</v>
       </c>
       <c r="G77">
-        <v>-0.1658651311566218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1014373599554894</v>
+      </c>
+      <c r="H77">
+        <v>0.01111107445477738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06923717682321681</v>
+        <v>-0.04039739904912436</v>
       </c>
       <c r="C78">
-        <v>0.02499022036054511</v>
+        <v>-0.01077324374522652</v>
       </c>
       <c r="D78">
-        <v>0.02885861590458909</v>
+        <v>0.04921411342081486</v>
       </c>
       <c r="E78">
-        <v>0.08594855049667091</v>
+        <v>-0.008388799148039083</v>
       </c>
       <c r="F78">
-        <v>-0.08838367676768839</v>
+        <v>-0.02109938244556252</v>
       </c>
       <c r="G78">
-        <v>-0.02469853941181431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05895961729700685</v>
+      </c>
+      <c r="H78">
+        <v>0.07348953142479528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1378255111695131</v>
+        <v>-0.1359207009104824</v>
       </c>
       <c r="C80">
-        <v>-0.586229001534097</v>
+        <v>-0.03526559488053286</v>
       </c>
       <c r="D80">
-        <v>-0.5614429606010866</v>
+        <v>0.04173240207531766</v>
       </c>
       <c r="E80">
-        <v>0.5103882669866903</v>
+        <v>-0.9423055126733367</v>
       </c>
       <c r="F80">
-        <v>-0.1192598414298174</v>
+        <v>0.2273953167970404</v>
       </c>
       <c r="G80">
-        <v>0.1226317777149399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1251514944684251</v>
+      </c>
+      <c r="H80">
+        <v>0.01315998339122367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1706336738467344</v>
+        <v>-0.1487608950424834</v>
       </c>
       <c r="C81">
-        <v>0.1082254876424854</v>
+        <v>-0.06620769643967711</v>
       </c>
       <c r="D81">
-        <v>-0.0483747960678031</v>
+        <v>0.09794534138322264</v>
       </c>
       <c r="E81">
-        <v>0.05708930780368705</v>
+        <v>-0.01640612018176269</v>
       </c>
       <c r="F81">
-        <v>0.1228604154025088</v>
+        <v>-0.08530117530865941</v>
       </c>
       <c r="G81">
-        <v>0.02063150405627962</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08217468176675641</v>
+      </c>
+      <c r="H81">
+        <v>-0.08369708901683379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04855980941310063</v>
+        <v>-0.03287927104987329</v>
       </c>
       <c r="C83">
-        <v>0.0003236644939717016</v>
+        <v>-0.005978914588051237</v>
       </c>
       <c r="D83">
-        <v>0.0409707056668627</v>
+        <v>0.02128370656695355</v>
       </c>
       <c r="E83">
-        <v>0.01116077351658546</v>
+        <v>0.005676397335641121</v>
       </c>
       <c r="F83">
-        <v>-0.05636534285369665</v>
+        <v>-0.00206193696200946</v>
       </c>
       <c r="G83">
-        <v>-0.04337955946879037</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0403951055533081</v>
+      </c>
+      <c r="H83">
+        <v>0.04214079156579809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2560215060077597</v>
+        <v>-0.217745039007413</v>
       </c>
       <c r="C85">
-        <v>0.1400021641890508</v>
+        <v>-0.08729435475795344</v>
       </c>
       <c r="D85">
-        <v>-0.05508754063536385</v>
+        <v>0.1676598102542824</v>
       </c>
       <c r="E85">
-        <v>0.0859929095736213</v>
+        <v>-0.004091141409341995</v>
       </c>
       <c r="F85">
-        <v>0.1062283145115387</v>
+        <v>-0.131528591460613</v>
       </c>
       <c r="G85">
-        <v>-0.03246948016427271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1373435535867416</v>
+      </c>
+      <c r="H85">
+        <v>-0.08893304202305112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004196425696595028</v>
+        <v>-0.0211806326731102</v>
       </c>
       <c r="C86">
-        <v>-0.006256360261543952</v>
+        <v>0.0004764889981380115</v>
       </c>
       <c r="D86">
-        <v>0.02505567251162473</v>
+        <v>0.008341639981973046</v>
       </c>
       <c r="E86">
-        <v>0.05192113525648569</v>
+        <v>0.008650591551762425</v>
       </c>
       <c r="F86">
-        <v>-0.0649601770316629</v>
+        <v>0.01829054613751914</v>
       </c>
       <c r="G86">
-        <v>-0.01383250478549104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06063783904361818</v>
+      </c>
+      <c r="H86">
+        <v>0.08214641757590448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03819748821395152</v>
+        <v>-0.02708041628642407</v>
       </c>
       <c r="C87">
-        <v>-0.007822132847238431</v>
+        <v>-0.002124472541895261</v>
       </c>
       <c r="D87">
-        <v>0.004667648537652439</v>
+        <v>0.03269947012444752</v>
       </c>
       <c r="E87">
-        <v>0.0316589228158289</v>
+        <v>-0.008569393010368418</v>
       </c>
       <c r="F87">
-        <v>-0.1122700621668156</v>
+        <v>-0.00587742936160965</v>
       </c>
       <c r="G87">
-        <v>-0.03242985346605328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0769380853319807</v>
+      </c>
+      <c r="H87">
+        <v>0.07457914619113305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009763863503944868</v>
+        <v>-0.03445122382360945</v>
       </c>
       <c r="C88">
-        <v>0.002267876089926249</v>
+        <v>0.01197959608123497</v>
       </c>
       <c r="D88">
-        <v>-0.0109073888479891</v>
+        <v>0.006288627915991188</v>
       </c>
       <c r="E88">
-        <v>-0.0005926321100467044</v>
+        <v>-0.006549834617982998</v>
       </c>
       <c r="F88">
-        <v>-0.002025736575215993</v>
+        <v>-0.006398838982036305</v>
       </c>
       <c r="G88">
-        <v>-0.06281384847541419</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003143177606891666</v>
+      </c>
+      <c r="H88">
+        <v>0.01393934794838587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09001119545317897</v>
+        <v>-0.2501083916056796</v>
       </c>
       <c r="C89">
-        <v>-0.05253996243326582</v>
+        <v>-0.03501411706061214</v>
       </c>
       <c r="D89">
-        <v>-0.1637820952182394</v>
+        <v>-0.3523585939686663</v>
       </c>
       <c r="E89">
-        <v>-0.2674570718463402</v>
+        <v>0.03671930561594803</v>
       </c>
       <c r="F89">
-        <v>-0.09012509384203807</v>
+        <v>0.05100036808344</v>
       </c>
       <c r="G89">
-        <v>-0.01734979369080555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02351002068163864</v>
+      </c>
+      <c r="H89">
+        <v>-0.007270701725065205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08048177509091614</v>
+        <v>-0.20037177690902</v>
       </c>
       <c r="C90">
-        <v>-0.07679318143711263</v>
+        <v>-0.02810698383479863</v>
       </c>
       <c r="D90">
-        <v>-0.2171034328969604</v>
+        <v>-0.3108130975847421</v>
       </c>
       <c r="E90">
-        <v>-0.2675651641047437</v>
+        <v>0.0281296579605311</v>
       </c>
       <c r="F90">
-        <v>-0.04306339504037598</v>
+        <v>0.06888888180901463</v>
       </c>
       <c r="G90">
-        <v>-0.02099356364842339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03051059662887306</v>
+      </c>
+      <c r="H90">
+        <v>-0.06742387177445976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3126552235956105</v>
+        <v>-0.2338039194269801</v>
       </c>
       <c r="C91">
-        <v>0.156346856205695</v>
+        <v>-0.1039209925612711</v>
       </c>
       <c r="D91">
-        <v>-0.04550401244315283</v>
+        <v>0.154836327869524</v>
       </c>
       <c r="E91">
-        <v>0.07612324138078611</v>
+        <v>-0.001891164526441562</v>
       </c>
       <c r="F91">
-        <v>0.2284872289304855</v>
+        <v>-0.1356153674630218</v>
       </c>
       <c r="G91">
-        <v>0.0381901762735944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1493173086742122</v>
+      </c>
+      <c r="H91">
+        <v>-0.1665520389330209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1722215686839861</v>
+        <v>-0.2475869540490059</v>
       </c>
       <c r="C92">
-        <v>-0.01973672402360347</v>
+        <v>-0.0919687644514031</v>
       </c>
       <c r="D92">
-        <v>-0.3038535918952213</v>
+        <v>-0.2381104470134785</v>
       </c>
       <c r="E92">
-        <v>-0.3473209146356916</v>
+        <v>0.01490133505109983</v>
       </c>
       <c r="F92">
-        <v>0.07729606983414415</v>
+        <v>0.02127074076388064</v>
       </c>
       <c r="G92">
-        <v>-0.5557567828539094</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.008651305017316816</v>
+      </c>
+      <c r="H92">
+        <v>-0.1446055615136024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08640858047011916</v>
+        <v>-0.2246890946742627</v>
       </c>
       <c r="C93">
-        <v>-0.08054325712875526</v>
+        <v>-0.04006926338377707</v>
       </c>
       <c r="D93">
-        <v>-0.245280153954501</v>
+        <v>-0.3310400005565369</v>
       </c>
       <c r="E93">
-        <v>-0.3791917112619418</v>
+        <v>0.0512424216410459</v>
       </c>
       <c r="F93">
-        <v>0.0006718479956074268</v>
+        <v>0.07553809543570338</v>
       </c>
       <c r="G93">
-        <v>0.06491551136358548</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0289280936320467</v>
+      </c>
+      <c r="H93">
+        <v>-0.01152546841976536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3052605503926497</v>
+        <v>-0.2564600314588947</v>
       </c>
       <c r="C94">
-        <v>0.2235177814769416</v>
+        <v>-0.09422743973657252</v>
       </c>
       <c r="D94">
-        <v>-0.08654043058522044</v>
+        <v>0.1531565612806902</v>
       </c>
       <c r="E94">
-        <v>0.08896794405861326</v>
+        <v>0.009425322073858737</v>
       </c>
       <c r="F94">
-        <v>0.1998663573813957</v>
+        <v>-0.1818347895678064</v>
       </c>
       <c r="G94">
-        <v>0.06553695201563106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1355287585692702</v>
+      </c>
+      <c r="H94">
+        <v>-0.1922951941513045</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06736178353497571</v>
+        <v>-0.05509126209146795</v>
       </c>
       <c r="C95">
-        <v>0.03051882494939972</v>
+        <v>-0.03002545072140469</v>
       </c>
       <c r="D95">
-        <v>0.09897052572010866</v>
+        <v>0.08608948131591564</v>
       </c>
       <c r="E95">
-        <v>0.06499411269291924</v>
+        <v>0.08325069977184026</v>
       </c>
       <c r="F95">
-        <v>-0.01165678725086131</v>
+        <v>-0.002737710176001156</v>
       </c>
       <c r="G95">
-        <v>-0.1701809527655623</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03243586763200999</v>
+      </c>
+      <c r="H95">
+        <v>0.04688653739273745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1841824767693459</v>
+        <v>-0.1813053261740679</v>
       </c>
       <c r="C98">
-        <v>-0.008096726079685231</v>
+        <v>-0.06822053538016927</v>
       </c>
       <c r="D98">
-        <v>0.04246968383248898</v>
+        <v>0.0464806264770097</v>
       </c>
       <c r="E98">
-        <v>-0.1100540035932547</v>
+        <v>0.04739089195879504</v>
       </c>
       <c r="F98">
-        <v>-0.1520636615422622</v>
+        <v>-0.006619517838510134</v>
       </c>
       <c r="G98">
-        <v>0.3562544289831423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0795765103022152</v>
+      </c>
+      <c r="H98">
+        <v>0.3707093585604025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007215852602668152</v>
+        <v>-0.01554362934689732</v>
       </c>
       <c r="C101">
-        <v>0.02273969224483131</v>
+        <v>0.0004956142789955011</v>
       </c>
       <c r="D101">
-        <v>0.02045208947656387</v>
+        <v>0.008450465719163764</v>
       </c>
       <c r="E101">
-        <v>0.09004101236599434</v>
+        <v>-0.005441799441344822</v>
       </c>
       <c r="F101">
-        <v>-0.1505741542479979</v>
+        <v>-0.01771707909186008</v>
       </c>
       <c r="G101">
-        <v>-0.1734327982587133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1088190509044085</v>
+      </c>
+      <c r="H101">
+        <v>-0.02535116520819767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1123813412977203</v>
+        <v>-0.1051766456168843</v>
       </c>
       <c r="C102">
-        <v>0.07073851456726607</v>
+        <v>-0.03475763844079931</v>
       </c>
       <c r="D102">
-        <v>-0.006255351851144989</v>
+        <v>0.08219132360378051</v>
       </c>
       <c r="E102">
-        <v>0.0613872951120152</v>
+        <v>-0.006176868364039918</v>
       </c>
       <c r="F102">
-        <v>0.1064502334919641</v>
+        <v>-0.06745754630514707</v>
       </c>
       <c r="G102">
-        <v>0.000369374606642544</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07792241741644319</v>
+      </c>
+      <c r="H102">
+        <v>-0.06614889490402691</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03113171983698833</v>
+        <v>-0.01927066801175113</v>
       </c>
       <c r="C103">
-        <v>0.01735167197322086</v>
+        <v>-0.007368946072008146</v>
       </c>
       <c r="D103">
-        <v>-0.005079398954114906</v>
+        <v>0.01706403692841013</v>
       </c>
       <c r="E103">
-        <v>0.01507314109317619</v>
+        <v>-0.01128800364428836</v>
       </c>
       <c r="F103">
-        <v>-0.01067989103329834</v>
+        <v>-0.0125328036145262</v>
       </c>
       <c r="G103">
-        <v>-0.02077824546438036</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0005062567659311573</v>
+      </c>
+      <c r="H103">
+        <v>-0.006887281030509183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2627384520739707</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9475564060731154</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02731432620861415</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03153195430625605</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1448947039723606</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01294787352962062</v>
+      </c>
+      <c r="H104">
+        <v>-0.04083561572232067</v>
       </c>
     </row>
   </sheetData>
